--- a/biology/Histoire de la zoologie et de la botanique/Andreï_Vassilievitch_Martynov/Andreï_Vassilievitch_Martynov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Andreï_Vassilievitch_Martynov/Andreï_Vassilievitch_Martynov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Vassilievitch_Martynov</t>
+          <t>Andreï_Vassilievitch_Martynov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Vassilievitch Martynov est un paléontologue et entomologiste russe, né le 9 août 1879 à Riazan et mort le 29 janvier 1938 à Moscou. Docteur ès sciences en 1933.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Vassilievitch_Martynov</t>
+          <t>Andreï_Vassilievitch_Martynov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé de l'Université d'État de Moscou en 1902 puis assistant au département de zoologie de l'Université de Varsovie en 1909-1915. Conservateur de la section d'entomologie au musée de Zoologie de l'Académie des sciences d'URSS à partir de 1921, il collabore également avec le musée de Géologie de l'Académie des sciences (Léningrad). En 1936, le musée est transféré à Moscou et Martynov vient s'y installer.
 Il s’intéresse d’abord aux trichoptères et aux crustacés avant de commencer à s’intéresser aux insectes fossiles.
